--- a/medicine/Mort/Nécropole_nationale_de_Sarrebourg_-_Buhl/Nécropole_nationale_de_Sarrebourg_-_Buhl.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Sarrebourg_-_Buhl/Nécropole_nationale_de_Sarrebourg_-_Buhl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Sarrebourg_-_Buhl</t>
+          <t>Nécropole_nationale_de_Sarrebourg_-_Buhl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Sarrebourg - Buhl[1] est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Sarrebourg, route de Buhl au lieu-dit du Marxberg, dans le département de la Moselle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Sarrebourg - Buhl est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Sarrebourg, route de Buhl au lieu-dit du Marxberg, dans le département de la Moselle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Sarrebourg_-_Buhl</t>
+          <t>Nécropole_nationale_de_Sarrebourg_-_Buhl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette nécropole fut créée après la Première Guerre mondiale pour servir de dernière demeure aux combattants. Y sont inhumés des militaires décédés pendant la Grande Guerre et relevés sur les territoires de Hesse, Hoff, Imling, Réding, Saint-Pierre Biberkirch. 
 On y trouve aussi des soldats tués lors de la Seconde Guerre mondiale (Français, Bulgares, Polonais, Tchèques, Yougoslaves) ainsi que des militaires décédés lors de l'occupation de la Rhénanie.
-Le cimetière rassemble sur une superficie de 1,472 ha 1 608 corps dont 962 en tombes individuelles et 646 en ossuaires[2].
+Le cimetière rassemble sur une superficie de 1,472 ha 1 608 corps dont 962 en tombes individuelles et 646 en ossuaires.
 </t>
         </is>
       </c>
